--- a/nucleotide_salvage_tracing/Vec-Asn-Uri-Hpx-Ad-Gu/output/sal-frac.xlsx
+++ b/nucleotide_salvage_tracing/Vec-Asn-Uri-Hpx-Ad-Gu/output/sal-frac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/nucleotide_salvage_tracing/Vec-Asn-Uri-Hpx-Ad-Gu/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A972AF9-C3E8-544C-AB67-92D951FE8EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21298C7-418B-9242-8DAF-5743D172C112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28560" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28560" windowHeight="14260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_flat" sheetId="6" r:id="rId1"/>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8EDFD2-608A-9C4D-AC3D-777BBE3BD8FF}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+    <sheetView zoomScale="166" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1906,11 +1906,11 @@
         <v>0.49463402931189582</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L9" si="0">K3/H3</f>
+        <f>K3/H3</f>
         <v>15.398465657731709</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" ref="M3:M9" si="1">100 - 100/L3</f>
+        <f t="shared" ref="M3:M9" si="0">100 - 100/L3</f>
         <v>93.505846476996936</v>
       </c>
       <c r="R3" s="4"/>
@@ -1950,11 +1950,11 @@
         <v>0.49192653882772008</v>
       </c>
       <c r="L4" s="4">
+        <f t="shared" ref="L3:L9" si="1">K4/H4</f>
+        <v>17.546031486714622</v>
+      </c>
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>17.546031486714622</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" si="1"/>
         <v>94.300705542691105</v>
       </c>
       <c r="R4" s="4"/>
@@ -1994,11 +1994,11 @@
         <v>0.49482392930490071</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="0"/>
+        <f>K5/H5</f>
         <v>16.840663301205645</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="1"/>
+        <f>100 - 100/L5</f>
         <v>94.0619916085585</v>
       </c>
       <c r="N5" s="4">
@@ -2047,7 +2047,7 @@
         <v>0.67811824396809595</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0620164105920802</v>
       </c>
       <c r="M6" s="4">
@@ -2093,11 +2093,11 @@
         <v>0.68994364044866985</v>
       </c>
       <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5943069155118321</v>
+      </c>
+      <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>4.5943069155118321</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="1"/>
         <v>78.233931289533928</v>
       </c>
       <c r="N7" s="4"/>
@@ -2139,11 +2139,11 @@
         <v>0.68803218379702347</v>
       </c>
       <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7602452144734713</v>
+      </c>
+      <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>4.7602452144734713</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="1"/>
         <v>78.992678844368953</v>
       </c>
       <c r="N8" s="4"/>
@@ -2185,11 +2185,11 @@
         <v>0.68624738572072164</v>
       </c>
       <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>4.9035546034951745</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" si="0"/>
-        <v>4.9035546034951745</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="1"/>
         <v>79.606630682011456</v>
       </c>
       <c r="N9" s="4">
@@ -2212,7 +2212,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2317,7 +2317,7 @@
         <v>8.3299556553044214E-4</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J9" si="0">G3*100</f>
+        <f>G3*100</f>
         <v>99.05653113648772</v>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
         <v>3.5365320796630167E-4</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="0"/>
+        <f>G4*100</f>
         <v>99.301384800982063</v>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
         <v>7.0462365816336239E-4</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J9" si="0">G5*100</f>
         <v>99.211422055283421</v>
       </c>
       <c r="K5" s="4">
@@ -2551,7 +2551,7 @@
   <dimension ref="A1:HH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
